--- a/REGULAR/DSWD/ROZUL, FLORENCIA.xlsx
+++ b/REGULAR/DSWD/ROZUL, FLORENCIA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\DSWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C619E6-CDD9-4D8A-9B04-D39BA5023984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="226">
   <si>
     <t>PERIOD</t>
   </si>
@@ -709,12 +710,15 @@
   </si>
   <si>
     <t>11/3,6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1571,7 +1575,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1618,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1678,7 +1682,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1742,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1804,7 +1808,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1871,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1965,7 +1969,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2024,7 +2028,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2093,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2136,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2211,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2397,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2463,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2517,7 +2521,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2587,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2639,7 +2643,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2714,7 +2718,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2757,7 +2761,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2823,7 +2827,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2879,7 +2883,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2981,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3044,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3089,7 +3093,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3106,25 +3110,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K374" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K375" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3136,13 +3140,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3151,14 +3155,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3462,7 +3466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3472,7 +3476,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3480,34 +3484,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K374"/>
+  <dimension ref="A2:K375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A341" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A356" activePane="bottomLeft"/>
       <selection activeCell="D349" sqref="D349"/>
-      <selection pane="bottomLeft" activeCell="I358" sqref="I358"/>
+      <selection pane="bottomLeft" activeCell="K363" sqref="K363"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3528,7 +3532,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3548,7 +3552,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3570,7 +3574,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3578,7 +3582,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3591,7 +3595,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3608,7 +3612,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3652,7 +3656,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>100.22000000000003</v>
+        <v>103.97000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3662,12 +3666,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>251.75</v>
+        <v>254.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3689,7 +3693,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>37073</v>
       </c>
@@ -3709,7 +3713,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>37104</v>
       </c>
@@ -3729,7 +3733,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>37135</v>
       </c>
@@ -3749,7 +3753,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>37165</v>
       </c>
@@ -3769,7 +3773,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>37196</v>
       </c>
@@ -3789,7 +3793,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>37226</v>
       </c>
@@ -3809,7 +3813,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>47</v>
       </c>
@@ -3831,7 +3835,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>37257</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>37288</v>
       </c>
@@ -3871,7 +3875,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>37316</v>
       </c>
@@ -3891,7 +3895,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>37347</v>
       </c>
@@ -3911,7 +3915,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>37377</v>
       </c>
@@ -3931,7 +3935,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>37408</v>
       </c>
@@ -3951,7 +3955,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>37438</v>
       </c>
@@ -3975,7 +3979,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>37469</v>
       </c>
@@ -3999,7 +4003,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>37500</v>
       </c>
@@ -4023,7 +4027,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>37530</v>
       </c>
@@ -4043,7 +4047,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>37561</v>
       </c>
@@ -4063,7 +4067,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>37591</v>
       </c>
@@ -4087,7 +4091,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>46</v>
       </c>
@@ -4109,7 +4113,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>37622</v>
       </c>
@@ -4129,7 +4133,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>37653</v>
       </c>
@@ -4153,7 +4157,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>37681</v>
       </c>
@@ -4177,7 +4181,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>37712</v>
       </c>
@@ -4197,7 +4201,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>37742</v>
       </c>
@@ -4221,7 +4225,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>37773</v>
       </c>
@@ -4245,7 +4249,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>37803</v>
       </c>
@@ -4269,7 +4273,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>37834</v>
       </c>
@@ -4289,7 +4293,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>37865</v>
       </c>
@@ -4309,7 +4313,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>37895</v>
       </c>
@@ -4329,7 +4333,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>37926</v>
       </c>
@@ -4349,7 +4353,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>37956</v>
       </c>
@@ -4373,7 +4377,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>45</v>
       </c>
@@ -4395,7 +4399,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>37987</v>
       </c>
@@ -4415,7 +4419,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>38018</v>
       </c>
@@ -4435,7 +4439,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>38047</v>
       </c>
@@ -4455,7 +4459,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>38078</v>
       </c>
@@ -4481,7 +4485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>38108</v>
       </c>
@@ -4501,7 +4505,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>38139</v>
       </c>
@@ -4521,7 +4525,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>38169</v>
       </c>
@@ -4541,7 +4545,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>38200</v>
       </c>
@@ -4561,7 +4565,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>38231</v>
       </c>
@@ -4581,7 +4585,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>38261</v>
       </c>
@@ -4601,7 +4605,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>38292</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>38322</v>
       </c>
@@ -4647,7 +4651,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>44</v>
       </c>
@@ -4669,7 +4673,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>38353</v>
       </c>
@@ -4689,7 +4693,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>38384</v>
       </c>
@@ -4709,7 +4713,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>38412</v>
       </c>
@@ -4729,7 +4733,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>38443</v>
       </c>
@@ -4749,7 +4753,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>38473</v>
       </c>
@@ -4769,7 +4773,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>38504</v>
       </c>
@@ -4789,7 +4793,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>38534</v>
       </c>
@@ -4809,7 +4813,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>38565</v>
       </c>
@@ -4829,7 +4833,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>38596</v>
       </c>
@@ -4849,7 +4853,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>38626</v>
       </c>
@@ -4869,7 +4873,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>38657</v>
       </c>
@@ -4889,7 +4893,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>38687</v>
       </c>
@@ -4913,7 +4917,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>64</v>
       </c>
@@ -4935,7 +4939,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>38718</v>
       </c>
@@ -4955,7 +4959,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>38749</v>
       </c>
@@ -4975,7 +4979,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>38777</v>
       </c>
@@ -4995,7 +4999,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>38808</v>
       </c>
@@ -5015,7 +5019,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>38838</v>
       </c>
@@ -5035,7 +5039,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>38869</v>
       </c>
@@ -5055,7 +5059,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>38899</v>
       </c>
@@ -5075,7 +5079,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>38930</v>
       </c>
@@ -5095,7 +5099,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>38961</v>
       </c>
@@ -5115,7 +5119,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>38991</v>
       </c>
@@ -5135,7 +5139,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>39022</v>
       </c>
@@ -5155,7 +5159,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>39052</v>
       </c>
@@ -5175,7 +5179,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
         <v>63</v>
       </c>
@@ -5197,7 +5201,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>39083</v>
       </c>
@@ -5217,7 +5221,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>39114</v>
       </c>
@@ -5237,7 +5241,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>39142</v>
       </c>
@@ -5257,7 +5261,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>39173</v>
       </c>
@@ -5277,7 +5281,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>39203</v>
       </c>
@@ -5297,7 +5301,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>39234</v>
       </c>
@@ -5317,7 +5321,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>39264</v>
       </c>
@@ -5337,7 +5341,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>39295</v>
       </c>
@@ -5357,7 +5361,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>39326</v>
       </c>
@@ -5377,7 +5381,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>39356</v>
       </c>
@@ -5397,7 +5401,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>39387</v>
       </c>
@@ -5423,7 +5427,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>39417</v>
       </c>
@@ -5443,7 +5447,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
         <v>62</v>
       </c>
@@ -5465,7 +5469,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>39448</v>
       </c>
@@ -5485,7 +5489,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>39479</v>
       </c>
@@ -5505,7 +5509,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>39508</v>
       </c>
@@ -5525,7 +5529,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>39539</v>
       </c>
@@ -5545,7 +5549,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>39569</v>
       </c>
@@ -5565,7 +5569,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>39600</v>
       </c>
@@ -5585,7 +5589,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>39630</v>
       </c>
@@ -5605,7 +5609,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>39661</v>
       </c>
@@ -5625,7 +5629,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>39692</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>67</v>
@@ -5671,7 +5675,7 @@
         <v>39742</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>39722</v>
       </c>
@@ -5691,7 +5695,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>39753</v>
       </c>
@@ -5711,7 +5715,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>39783</v>
       </c>
@@ -5731,7 +5735,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
         <v>61</v>
       </c>
@@ -5753,7 +5757,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>39814</v>
       </c>
@@ -5773,7 +5777,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>39845</v>
       </c>
@@ -5793,7 +5797,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>39873</v>
       </c>
@@ -5813,7 +5817,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>39904</v>
       </c>
@@ -5833,7 +5837,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>39934</v>
       </c>
@@ -5853,7 +5857,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>39965</v>
       </c>
@@ -5873,7 +5877,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>39995</v>
       </c>
@@ -5893,7 +5897,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>40026</v>
       </c>
@@ -5913,7 +5917,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>40057</v>
       </c>
@@ -5933,7 +5937,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>40087</v>
       </c>
@@ -5957,7 +5961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>48</v>
@@ -5979,7 +5983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>69</v>
@@ -5999,7 +6003,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>40118</v>
       </c>
@@ -6019,7 +6023,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>40148</v>
       </c>
@@ -6039,7 +6043,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="47" t="s">
         <v>60</v>
       </c>
@@ -6061,7 +6065,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>40179</v>
       </c>
@@ -6085,7 +6089,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>40210</v>
       </c>
@@ -6105,7 +6109,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>40238</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>40269</v>
       </c>
@@ -6151,7 +6155,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>40299</v>
       </c>
@@ -6171,7 +6175,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>40330</v>
       </c>
@@ -6191,7 +6195,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>40360</v>
       </c>
@@ -6217,7 +6221,7 @@
         <v>40381</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>87</v>
@@ -6237,7 +6241,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>40391</v>
       </c>
@@ -6261,7 +6265,7 @@
         <v>40396</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>89</v>
@@ -6281,7 +6285,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>40422</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>40449</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>90</v>
@@ -6327,7 +6331,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>86</v>
@@ -6349,7 +6353,7 @@
         <v>40442</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>91</v>
@@ -6369,7 +6373,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>40452</v>
       </c>
@@ -6393,7 +6397,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>40483</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>40513</v>
       </c>
@@ -6445,7 +6449,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="47" t="s">
         <v>85</v>
       </c>
@@ -6463,7 +6467,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>40544</v>
       </c>
@@ -6487,7 +6491,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>40575</v>
       </c>
@@ -6511,7 +6515,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>40603</v>
       </c>
@@ -6535,7 +6539,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>40634</v>
       </c>
@@ -6559,7 +6563,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>40664</v>
       </c>
@@ -6583,7 +6587,7 @@
         <v>40674</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>103</v>
@@ -6603,7 +6607,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>40695</v>
       </c>
@@ -6623,7 +6627,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>40725</v>
       </c>
@@ -6647,7 +6651,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>40756</v>
       </c>
@@ -6671,7 +6675,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>40787</v>
       </c>
@@ -6695,7 +6699,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>88</v>
@@ -6717,7 +6721,7 @@
         <v>40816</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>40817</v>
       </c>
@@ -6741,7 +6745,7 @@
         <v>40842</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>107</v>
@@ -6761,7 +6765,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>40848</v>
       </c>
@@ -6785,7 +6789,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>40878</v>
       </c>
@@ -6809,7 +6813,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="47" t="s">
         <v>84</v>
       </c>
@@ -6831,7 +6835,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>40909</v>
       </c>
@@ -6855,7 +6859,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>40940</v>
       </c>
@@ -6879,7 +6883,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>40969</v>
       </c>
@@ -6899,7 +6903,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>41000</v>
       </c>
@@ -6923,7 +6927,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>41030</v>
       </c>
@@ -6947,7 +6951,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>41061</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>117</v>
@@ -6993,7 +6997,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>41091</v>
       </c>
@@ -7019,7 +7023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>86</v>
@@ -7041,7 +7045,7 @@
         <v>41108</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>41122</v>
       </c>
@@ -7061,7 +7065,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>41153</v>
       </c>
@@ -7081,7 +7085,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>41183</v>
       </c>
@@ -7101,7 +7105,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>41214</v>
       </c>
@@ -7121,7 +7125,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>41244</v>
       </c>
@@ -7141,7 +7145,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="47" t="s">
         <v>83</v>
       </c>
@@ -7163,7 +7167,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>41275</v>
       </c>
@@ -7189,7 +7193,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>41306</v>
       </c>
@@ -7215,7 +7219,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>41334</v>
       </c>
@@ -7241,7 +7245,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>121</v>
@@ -7263,7 +7267,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>41365</v>
       </c>
@@ -7283,7 +7287,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>41395</v>
       </c>
@@ -7307,7 +7311,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>122</v>
@@ -7327,7 +7331,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>41426</v>
       </c>
@@ -7353,7 +7357,7 @@
         <v>41452</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>123</v>
@@ -7373,7 +7377,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>41456</v>
       </c>
@@ -7393,7 +7397,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>41487</v>
       </c>
@@ -7419,7 +7423,7 @@
         <v>41506</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>41518</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>130</v>
@@ -7467,7 +7471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>41548</v>
       </c>
@@ -7497,7 +7501,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>41579</v>
       </c>
@@ -7521,7 +7525,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>41609</v>
       </c>
@@ -7541,7 +7545,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>82</v>
       </c>
@@ -7563,7 +7567,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>41640</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>41656</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>67</v>
@@ -7607,7 +7611,7 @@
         <v>41663</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>135</v>
@@ -7627,7 +7631,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>41671</v>
       </c>
@@ -7651,7 +7655,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>41699</v>
       </c>
@@ -7675,7 +7679,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>41730</v>
       </c>
@@ -7701,7 +7705,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>138</v>
@@ -7721,7 +7725,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>41760</v>
       </c>
@@ -7747,7 +7751,7 @@
         <v>41785</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>139</v>
@@ -7767,7 +7771,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>41791</v>
       </c>
@@ -7793,7 +7797,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>140</v>
@@ -7813,7 +7817,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>41821</v>
       </c>
@@ -7837,7 +7841,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>41852</v>
       </c>
@@ -7861,7 +7865,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>41883</v>
       </c>
@@ -7885,7 +7889,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>41913</v>
       </c>
@@ -7909,7 +7913,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>41944</v>
       </c>
@@ -7933,7 +7937,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>41974</v>
       </c>
@@ -7957,7 +7961,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>147</v>
@@ -7977,7 +7981,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="47" t="s">
         <v>81</v>
       </c>
@@ -7999,7 +8003,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>42005</v>
       </c>
@@ -8023,7 +8027,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>42036</v>
       </c>
@@ -8047,7 +8051,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>149</v>
@@ -8067,7 +8071,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>42064</v>
       </c>
@@ -8091,7 +8095,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>42095</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>151</v>
@@ -8137,7 +8141,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>42125</v>
       </c>
@@ -8163,7 +8167,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>152</v>
@@ -8183,7 +8187,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>42156</v>
       </c>
@@ -8209,7 +8213,7 @@
         <v>42177</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>153</v>
@@ -8229,7 +8233,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>42186</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>141</v>
@@ -8275,7 +8279,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>42217</v>
       </c>
@@ -8299,7 +8303,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>42248</v>
       </c>
@@ -8325,7 +8329,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>67</v>
@@ -8345,7 +8349,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>67</v>
@@ -8365,7 +8369,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>161</v>
@@ -8385,7 +8389,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>42278</v>
       </c>
@@ -8409,7 +8413,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>42309</v>
       </c>
@@ -8433,7 +8437,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>42339</v>
       </c>
@@ -8457,7 +8461,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>48</v>
@@ -8477,7 +8481,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="47" t="s">
         <v>80</v>
       </c>
@@ -8499,7 +8503,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>42370</v>
       </c>
@@ -8519,7 +8523,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>42401</v>
       </c>
@@ -8539,7 +8543,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>42430</v>
       </c>
@@ -8559,7 +8563,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>42461</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>42473</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>42491</v>
       </c>
@@ -8611,7 +8615,7 @@
         <v>42502</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>42522</v>
       </c>
@@ -8637,7 +8641,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>86</v>
@@ -8659,7 +8663,7 @@
         <v>42551</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>42552</v>
       </c>
@@ -8683,7 +8687,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>42583</v>
       </c>
@@ -8707,7 +8711,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>42614</v>
       </c>
@@ -8733,7 +8737,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>168</v>
@@ -8753,7 +8757,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>42644</v>
       </c>
@@ -8777,7 +8781,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>42675</v>
       </c>
@@ -8801,7 +8805,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <v>42705</v>
       </c>
@@ -8825,7 +8829,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>171</v>
@@ -8847,7 +8851,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="47" t="s">
         <v>79</v>
       </c>
@@ -8869,7 +8873,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>42736</v>
       </c>
@@ -8893,7 +8897,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>42767</v>
       </c>
@@ -8919,7 +8923,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>174</v>
@@ -8939,7 +8943,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>42795</v>
       </c>
@@ -8963,7 +8967,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>42826</v>
       </c>
@@ -8987,7 +8991,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>42856</v>
       </c>
@@ -9011,7 +9015,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>42887</v>
       </c>
@@ -9031,7 +9035,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>42917</v>
       </c>
@@ -9051,7 +9055,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>42948</v>
       </c>
@@ -9075,7 +9079,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>42979</v>
       </c>
@@ -9103,7 +9107,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <v>43009</v>
       </c>
@@ -9129,7 +9133,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>67</v>
@@ -9149,7 +9153,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>180</v>
@@ -9169,7 +9173,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <v>43040</v>
       </c>
@@ -9189,7 +9193,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>43070</v>
       </c>
@@ -9215,7 +9219,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>65</v>
@@ -9235,7 +9239,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="47" t="s">
         <v>78</v>
       </c>
@@ -9257,7 +9261,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>43101</v>
       </c>
@@ -9283,7 +9287,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>43132</v>
       </c>
@@ -9303,7 +9307,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>43160</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>43191</v>
       </c>
@@ -9355,7 +9359,7 @@
         <v>43193</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>184</v>
@@ -9377,7 +9381,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <v>43221</v>
       </c>
@@ -9403,7 +9407,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>185</v>
@@ -9425,7 +9429,7 @@
         <v>43224</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>129</v>
@@ -9447,7 +9451,7 @@
         <v>43284</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>43252</v>
       </c>
@@ -9473,7 +9477,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <v>43282</v>
       </c>
@@ -9497,7 +9501,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <v>43313</v>
       </c>
@@ -9523,7 +9527,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>188</v>
@@ -9543,7 +9547,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>43344</v>
       </c>
@@ -9569,7 +9573,7 @@
         <v>43370</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>189</v>
@@ -9589,7 +9593,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>43374</v>
       </c>
@@ -9615,7 +9619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>86</v>
@@ -9637,7 +9641,7 @@
         <v>43382</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>67</v>
@@ -9657,7 +9661,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>89</v>
@@ -9677,7 +9681,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>43405</v>
       </c>
@@ -9701,7 +9705,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>43435</v>
       </c>
@@ -9725,7 +9729,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="47" t="s">
         <v>77</v>
       </c>
@@ -9747,7 +9751,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>43466</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>43497</v>
       </c>
@@ -9799,7 +9803,7 @@
         <v>43523</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <v>43525</v>
       </c>
@@ -9825,7 +9829,7 @@
         <v>43531</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>43556</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>43586</v>
       </c>
@@ -9877,7 +9881,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>43617</v>
       </c>
@@ -9897,7 +9901,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>43647</v>
       </c>
@@ -9923,7 +9927,7 @@
         <v>43663</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>86</v>
@@ -9945,7 +9949,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>43678</v>
       </c>
@@ -9965,7 +9969,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>43709</v>
       </c>
@@ -9991,7 +9995,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>43739</v>
       </c>
@@ -10011,7 +10015,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>43770</v>
       </c>
@@ -10035,7 +10039,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>43800</v>
       </c>
@@ -10059,7 +10063,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="47" t="s">
         <v>76</v>
       </c>
@@ -10081,7 +10085,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>43831</v>
       </c>
@@ -10107,7 +10111,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>209</v>
@@ -10129,7 +10133,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>43862</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>43891</v>
       </c>
@@ -10173,7 +10177,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
         <v>43922</v>
       </c>
@@ -10193,7 +10197,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>43952</v>
       </c>
@@ -10213,7 +10217,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>43983</v>
       </c>
@@ -10233,7 +10237,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>44013</v>
       </c>
@@ -10253,7 +10257,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <v>44044</v>
       </c>
@@ -10273,7 +10277,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>44075</v>
       </c>
@@ -10293,7 +10297,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>44105</v>
       </c>
@@ -10313,7 +10317,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>44136</v>
       </c>
@@ -10333,7 +10337,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>44166</v>
       </c>
@@ -10357,7 +10361,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="47" t="s">
         <v>75</v>
       </c>
@@ -10379,7 +10383,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>44197</v>
       </c>
@@ -10399,7 +10403,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>44228</v>
       </c>
@@ -10419,7 +10423,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <v>44256</v>
       </c>
@@ -10439,7 +10443,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>44287</v>
       </c>
@@ -10459,7 +10463,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>44317</v>
       </c>
@@ -10479,7 +10483,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>44348</v>
       </c>
@@ -10499,7 +10503,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>44378</v>
       </c>
@@ -10519,7 +10523,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>44409</v>
       </c>
@@ -10539,7 +10543,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>44440</v>
       </c>
@@ -10559,7 +10563,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>44470</v>
       </c>
@@ -10583,7 +10587,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>44501</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>44531</v>
       </c>
@@ -10629,7 +10633,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="47" t="s">
         <v>204</v>
       </c>
@@ -10651,7 +10655,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>44562</v>
       </c>
@@ -10675,7 +10679,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>44593</v>
       </c>
@@ -10695,7 +10699,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <v>44621</v>
       </c>
@@ -10715,7 +10719,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>44652</v>
       </c>
@@ -10741,7 +10745,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>223</v>
@@ -10761,7 +10765,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>44682</v>
       </c>
@@ -10785,7 +10789,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <v>44713</v>
       </c>
@@ -10811,7 +10815,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>54</v>
@@ -10831,7 +10835,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="48"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>44743</v>
       </c>
@@ -10855,7 +10859,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>219</v>
@@ -10875,7 +10879,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>220</v>
@@ -10895,7 +10899,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="48"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>44774</v>
       </c>
@@ -10921,7 +10925,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>44805</v>
       </c>
@@ -10947,7 +10951,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>44835</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>73</v>
@@ -10995,7 +10999,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>67</v>
@@ -11015,7 +11019,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>216</v>
@@ -11035,7 +11039,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="48"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>44866</v>
       </c>
@@ -11055,7 +11059,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>44896</v>
       </c>
@@ -11081,7 +11085,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>215</v>
@@ -11101,7 +11105,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="48"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="47" t="s">
         <v>211</v>
       </c>
@@ -11119,9 +11123,9 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B348" s="20"/>
       <c r="C348" s="13">
@@ -11139,9 +11143,9 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B349" s="15"/>
       <c r="C349" s="13">
@@ -11159,9 +11163,9 @@
       <c r="J349" s="12"/>
       <c r="K349" s="15"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B350" s="20"/>
       <c r="C350" s="13">
@@ -11179,9 +11183,9 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B351" s="20"/>
       <c r="C351" s="13">
@@ -11199,9 +11203,9 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B352" s="20" t="s">
         <v>86</v>
@@ -11223,9 +11227,9 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B353" s="20"/>
       <c r="C353" s="13">
@@ -11243,9 +11247,9 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B354" s="20" t="s">
         <v>86</v>
@@ -11269,9 +11273,9 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B355" s="20"/>
       <c r="C355" s="13">
@@ -11289,9 +11293,9 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B356" s="20"/>
       <c r="C356" s="13">
@@ -11309,9 +11313,9 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B357" s="20" t="s">
         <v>67</v>
@@ -11333,20 +11337,22 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B358" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C358" s="13"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
       <c r="F358" s="20"/>
-      <c r="G358" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H358" s="39">
         <v>2</v>
@@ -11357,27 +11363,29 @@
         <v>224</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B359" s="20"/>
-      <c r="C359" s="13"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D359" s="39"/>
       <c r="E359" s="9"/>
       <c r="F359" s="20"/>
-      <c r="G359" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H359" s="39"/>
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40">
-        <v>45292</v>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="47" t="s">
+        <v>225</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -11393,29 +11401,33 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B361" s="20"/>
-      <c r="C361" s="13"/>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D361" s="39"/>
       <c r="E361" s="9"/>
       <c r="F361" s="20"/>
-      <c r="G361" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G361" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H361" s="39"/>
       <c r="I361" s="9"/>
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B362" s="20"/>
+        <v>45351</v>
+      </c>
+      <c r="B362" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
@@ -11424,14 +11436,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H362" s="39"/>
+      <c r="H362" s="39">
+        <v>1</v>
+      </c>
       <c r="I362" s="9"/>
       <c r="J362" s="11"/>
-      <c r="K362" s="20"/>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K362" s="48">
+        <v>45330</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -11447,9 +11463,9 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11465,9 +11481,9 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11483,9 +11499,9 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
-        <v>45474</v>
+        <v>45473</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -11501,9 +11517,9 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -11519,9 +11535,9 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
-        <v>45536</v>
+        <v>45535</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -11537,9 +11553,9 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
-        <v>45566</v>
+        <v>45565</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -11555,9 +11571,9 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
-        <v>45597</v>
+        <v>45596</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -11573,9 +11589,9 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
-        <v>45627</v>
+        <v>45626</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -11591,9 +11607,9 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
-        <v>45658</v>
+        <v>45657</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -11609,9 +11625,9 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
-        <v>45689</v>
+        <v>45688</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -11627,9 +11643,9 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
-        <v>45717</v>
+        <v>45716</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -11644,6 +11660,24 @@
       <c r="I374" s="9"/>
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="40">
+        <v>45747</v>
+      </c>
+      <c r="B375" s="20"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="39"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H375" s="39"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11660,10 +11694,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11686,7 +11720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11694,21 +11728,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -11721,7 +11755,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11750,7 +11784,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11776,17 +11810,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11807,7 +11841,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11834,7 +11868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11860,7 +11894,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11886,7 +11920,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11912,7 +11946,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11938,7 +11972,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11964,7 +11998,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11990,7 +12024,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12016,7 +12050,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12036,7 +12070,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12056,7 +12090,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12076,7 +12110,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12097,7 +12131,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12118,7 +12152,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12139,7 +12173,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12160,7 +12194,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12181,7 +12215,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12202,7 +12236,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12223,7 +12257,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12244,7 +12278,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -12265,7 +12299,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -12286,7 +12320,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -12307,7 +12341,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -12328,7 +12362,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -12349,7 +12383,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -12370,7 +12404,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12391,7 +12425,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12412,7 +12446,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12433,7 +12467,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12454,7 +12488,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12475,7 +12509,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12496,7 +12530,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12505,7 +12539,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12514,7 +12548,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12523,7 +12557,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12532,7 +12566,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12541,7 +12575,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12550,7 +12584,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12559,7 +12593,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12568,7 +12602,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12577,7 +12611,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12586,7 +12620,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12595,7 +12629,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12604,7 +12638,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12613,7 +12647,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12622,7 +12656,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12631,7 +12665,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12640,7 +12674,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12649,7 +12683,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12658,7 +12692,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12667,7 +12701,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12676,7 +12710,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12685,7 +12719,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12694,7 +12728,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12703,7 +12737,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12712,7 +12746,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12721,7 +12755,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12730,7 +12764,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12739,7 +12773,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12748,7 +12782,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12757,7 +12791,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
